--- a/kysh_info.xlsx
+++ b/kysh_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Takemura Lab\Koyou-Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8F8AF-638C-4FD3-9FFC-C740F953126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107308F8-3B3D-4174-8A84-465974444129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
+    <workbookView xWindow="0" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,20 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金子　恵太</t>
-    <rPh sb="0" eb="2">
-      <t>カネコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カネコ　ケイタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1111-111111-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,6 +167,20 @@
   </si>
   <si>
     <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空条　承太郎</t>
+    <rPh sb="0" eb="2">
+      <t>クウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジョウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クウジョウ　ジョウタロウ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -249,10 +249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,7 +551,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -600,34 +596,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="1"/>
     </row>

--- a/kysh_info.xlsx
+++ b/kysh_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Takemura Lab\Koyou-Hoken-autofill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Others\Koyou-Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107308F8-3B3D-4174-8A84-465974444129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA6330-70C3-4872-91ED-C6867CF86F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>名前（漢字）</t>
     <rPh sb="0" eb="2">
@@ -154,14 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4-10-10-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5-4-4-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>340</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,6 +173,52 @@
   </si>
   <si>
     <t>クウジョウ　ジョウタロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空条　徐倫</t>
+    <rPh sb="0" eb="2">
+      <t>クウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クウジョウ　ジョリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>222222-222222-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>000099998888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-22-8-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-4-5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-10-10-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-04-04-01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -548,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98ACB9F-6945-4716-9A74-57E850209D81}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -596,10 +634,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -614,18 +652,50 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kysh_info.xlsx
+++ b/kysh_info.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Others\Koyou-Hoken-autofill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InnovationCompany\Desktop\Kaneko_Biboroku\Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBA6330-70C3-4872-91ED-C6867CF86F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4CD38B-F307-419D-ABE5-BC79EF7BFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -176,36 +174,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>空条　徐倫</t>
-    <rPh sb="0" eb="2">
-      <t>クウジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョリン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クウジョウ　ジョリン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>222222-222222-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>000099998888</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4-22-8-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5-4-5-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>120</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +191,35 @@
   </si>
   <si>
     <t>5-04-04-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉良　良影</t>
+    <rPh sb="0" eb="2">
+      <t>キラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キラ　ヨシカゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-04-05-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-22-08-08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2222-222222-2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -589,7 +590,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -634,68 +635,68 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kysh_info.xlsx
+++ b/kysh_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InnovationCompany\Desktop\Kaneko_Biboroku\Hoken-autofill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4CD38B-F307-419D-ABE5-BC79EF7BFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E3E77-8AB1-4B20-859A-A6CDA661DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D15ECE4-8C3A-46B8-9FFC-152D9D0F9CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>名前（漢字）</t>
     <rPh sb="0" eb="2">
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5-04-04-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吉良　良影</t>
     <rPh sb="0" eb="2">
       <t>キラ</t>
@@ -211,15 +207,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5-04-05-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4-22-08-08</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2222-222222-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喪失年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="4">
+      <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-04-03-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-04-02-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-4-4-20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98ACB9F-6945-4716-9A74-57E850209D81}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="T8" sqref="T7:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -598,7 +633,7 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,16 +667,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -653,10 +694,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>20</v>
@@ -664,8 +705,14 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -688,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -697,6 +744,12 @@
         <v>16</v>
       </c>
       <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
